--- a/Ladekurven.xlsx
+++ b/Ladekurven.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JonasSchneider/Documents/Sonstiges/Git/Projektmodul_Energiesystemische_Forschung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516EC9AC-CC9C-D64E-84FF-EE0CD3DBBB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D653535-3BD8-4041-9C53-830655896066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{4F3ECD99-C87E-0D42-BEAF-03EFA9330FCC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{4F3ECD99-C87E-0D42-BEAF-03EFA9330FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7E83EB-8B57-1F44-939F-FED93D2D01ED}">
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1896,116 +1892,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>0</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>0</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>0</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>0</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>0</v>
-      </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>0</v>
-      </c>
-      <c r="B144">
-        <v>0</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>0</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
